--- a/data/trans_media/IQ3001_MoAR-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ3001_MoAR-Habitat-trans_media.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según la edad en meses en la que empezaron a comer cereales sin gluten</t>
+          <t>Meses en la que empezaron a comer cereales sin gluten</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,47</t>
+          <t>3,54; 5,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -720,19 +720,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,53</t>
+          <t>3,91; 5,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,29</t>
+          <t>5,8; 9,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,7</t>
+          <t>4,08; 5,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,26</t>
+          <t>4,83; 6,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 7,03</t>
+          <t>5,3; 7,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,26</t>
+          <t>4,22; 5,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,25</t>
+          <t>4,61; 6,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 5,56</t>
+          <t>4,58; 5,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 5,21</t>
+          <t>4,29; 5,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,01</t>
+          <t>4,87; 5,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 6,36</t>
+          <t>5,18; 6,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,22 +905,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,7</t>
+          <t>3,91; 4,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 5,99</t>
+          <t>4,91; 5,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 6,27</t>
+          <t>4,89; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,16</t>
+          <t>4,22; 5,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,29 +930,29 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 5,86</t>
+          <t>5,02; 5,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 4,73</t>
+          <t>4,13; 4,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 5,7</t>
+          <t>4,99; 5,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 5,85</t>
+          <t>5,02; 5,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,04</t>
+          <t>3,63; 5,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 5,73</t>
+          <t>4,54; 5,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,84</t>
+          <t>4,43; 6,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,41</t>
+          <t>4,47; 5,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 5,77</t>
+          <t>4,63; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,38</t>
+          <t>4,46; 6,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 5,01</t>
+          <t>4,2; 5,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 5,47</t>
+          <t>4,65; 5,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,15</t>
+          <t>4,57; 6,09</t>
         </is>
       </c>
     </row>
@@ -1125,37 +1125,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,13</t>
+          <t>4,51; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 5,1</t>
+          <t>4,39; 5,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,14</t>
+          <t>4,53; 6,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 4,53</t>
+          <t>3,62; 4,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 5,79</t>
+          <t>4,72; 5,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,2</t>
+          <t>5,5; 7,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 5,16</t>
+          <t>4,19; 5,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,53</t>
+          <t>5,3; 6,53</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 5,02</t>
+          <t>4,34; 5,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 5,39</t>
+          <t>4,84; 5,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 5,95</t>
+          <t>5,11; 5,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 4,73</t>
+          <t>4,25; 4,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,49</t>
+          <t>4,92; 5,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,11</t>
+          <t>5,33; 6,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,36; 4,79</t>
+          <t>4,36; 4,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,97; 5,34</t>
+          <t>4,95; 5,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 5,87</t>
+          <t>5,3; 5,87</t>
         </is>
       </c>
     </row>
